--- a/Article/Article1/sintesi car. personali cluster.xlsx
+++ b/Article/Article1/sintesi car. personali cluster.xlsx
@@ -671,16 +671,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3478260869565215</c:v>
+                  <c:v>9.0909090909090917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3478260869565215</c:v>
+                  <c:v>9.0909090909090917</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.391304347826086</c:v>
+                  <c:v>36.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.739130434782609</c:v>
+                  <c:v>45.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,11 +820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-874470368"/>
-        <c:axId val="-874468192"/>
+        <c:axId val="2123587936"/>
+        <c:axId val="2123591744"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-874470368"/>
+        <c:axId val="2123587936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +876,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-874468192"/>
+        <c:crossAx val="2123591744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -884,7 +884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-874468192"/>
+        <c:axId val="2123591744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +935,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-874470368"/>
+        <c:crossAx val="2123587936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,11 +1553,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-809017696"/>
-        <c:axId val="-809016608"/>
+        <c:axId val="2130307408"/>
+        <c:axId val="2130307952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-809017696"/>
+        <c:axId val="2130307408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1600,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809016608"/>
+        <c:crossAx val="2130307952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1608,7 +1608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-809016608"/>
+        <c:axId val="2130307952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1690,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809017696"/>
+        <c:crossAx val="2130307408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1811,6 +1811,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2307,11 +2308,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-809012256"/>
-        <c:axId val="-809011168"/>
+        <c:axId val="63063376"/>
+        <c:axId val="63067184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-809012256"/>
+        <c:axId val="63063376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,7 +2355,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809011168"/>
+        <c:crossAx val="63067184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2362,7 +2363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-809011168"/>
+        <c:axId val="63067184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,6 +2384,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2443,7 +2445,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809012256"/>
+        <c:crossAx val="63063376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2457,6 +2459,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2612,6 +2615,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Cluster1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2663,6 +2669,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Cluster2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2714,6 +2723,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Cluster3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2750,13 +2762,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>39.130434782608695</c:v>
+                  <c:v>81.818181818181813</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.695652173913043</c:v>
+                  <c:v>18.181818181818183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,6 +2777,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Cluster4</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2816,6 +2831,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Cluster5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2872,11 +2890,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-874464928"/>
-        <c:axId val="-874463296"/>
+        <c:axId val="2123587392"/>
+        <c:axId val="2123584672"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-874464928"/>
+        <c:axId val="2123587392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2914,7 +2932,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-874463296"/>
+        <c:crossAx val="2123584672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2922,7 +2940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-874463296"/>
+        <c:axId val="2123584672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2973,7 +2991,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-874464928"/>
+        <c:crossAx val="2123587392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3364,16 +3382,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.391304347826086</c:v>
+                  <c:v>36.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.043478260869565</c:v>
+                  <c:v>27.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.695652173913043</c:v>
+                  <c:v>18.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.695652173913043</c:v>
+                  <c:v>18.181818181818183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3547,11 +3565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-874463840"/>
-        <c:axId val="-874461664"/>
+        <c:axId val="1940111072"/>
+        <c:axId val="2130300880"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-874463840"/>
+        <c:axId val="1940111072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,7 +3621,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-874461664"/>
+        <c:crossAx val="2130300880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3611,7 +3629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-874461664"/>
+        <c:axId val="2130300880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,7 +3680,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-874463840"/>
+        <c:crossAx val="1940111072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4099,16 +4117,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.782608695652172</c:v>
+                  <c:v>72.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.695652173913043</c:v>
+                  <c:v>18.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3478260869565215</c:v>
+                  <c:v>9.0909090909090917</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4327,11 +4345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-874467648"/>
-        <c:axId val="-874460576"/>
+        <c:axId val="2130299792"/>
+        <c:axId val="2130295984"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-874467648"/>
+        <c:axId val="2130299792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4369,7 +4387,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-874460576"/>
+        <c:crossAx val="2130295984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4377,7 +4395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-874460576"/>
+        <c:axId val="2130295984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4428,7 +4446,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-874467648"/>
+        <c:crossAx val="2130299792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4587,8 +4605,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11663459399059029"/>
-          <c:y val="0.13971208979240321"/>
+          <c:x val="0.13508122265196223"/>
+          <c:y val="0.19026876005992496"/>
           <c:w val="0.60010826879014689"/>
           <c:h val="0.73447202769467868"/>
         </c:manualLayout>
@@ -4974,11 +4992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-809021504"/>
-        <c:axId val="-809014432"/>
+        <c:axId val="2130294352"/>
+        <c:axId val="2130296528"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-809021504"/>
+        <c:axId val="2130294352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5016,7 +5034,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809014432"/>
+        <c:crossAx val="2130296528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5024,7 +5042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-809014432"/>
+        <c:axId val="2130296528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5075,7 +5093,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809021504"/>
+        <c:crossAx val="2130294352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5228,7 +5246,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16467070466241174"/>
+          <c:y val="0.15982328821800498"/>
+          <c:w val="0.49590201501458697"/>
+          <c:h val="0.74989259407090247"/>
+        </c:manualLayout>
+      </c:layout>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -5439,16 +5467,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3478260869565215</c:v>
+                  <c:v>9.0909090909090917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3478260869565215</c:v>
+                  <c:v>9.0909090909090917</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.391304347826086</c:v>
+                  <c:v>36.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.739130434782609</c:v>
+                  <c:v>45.454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5610,11 +5638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-809025312"/>
-        <c:axId val="-809022048"/>
+        <c:axId val="2130295440"/>
+        <c:axId val="2130297072"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-809025312"/>
+        <c:axId val="2130295440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5666,7 +5694,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809022048"/>
+        <c:crossAx val="2130297072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5674,7 +5702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-809022048"/>
+        <c:axId val="2130297072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5725,7 +5753,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809025312"/>
+        <c:crossAx val="2130295440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6343,11 +6371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-809014976"/>
-        <c:axId val="-809020416"/>
+        <c:axId val="2130293264"/>
+        <c:axId val="2130304144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-809014976"/>
+        <c:axId val="2130293264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6390,7 +6418,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809020416"/>
+        <c:crossAx val="2130304144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6398,7 +6426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-809020416"/>
+        <c:axId val="2130304144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,7 +6508,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809014976"/>
+        <c:crossAx val="2130293264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7098,11 +7126,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-809016064"/>
-        <c:axId val="-809015520"/>
+        <c:axId val="2130292720"/>
+        <c:axId val="2130305232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-809016064"/>
+        <c:axId val="2130292720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7145,7 +7173,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809015520"/>
+        <c:crossAx val="2130305232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7153,7 +7181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-809015520"/>
+        <c:axId val="2130305232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7235,7 +7263,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809016064"/>
+        <c:crossAx val="2130292720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7853,11 +7881,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-809019328"/>
-        <c:axId val="-809018240"/>
+        <c:axId val="2130298704"/>
+        <c:axId val="2130299248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-809019328"/>
+        <c:axId val="2130298704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7900,7 +7928,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809018240"/>
+        <c:crossAx val="2130299248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7908,7 +7936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-809018240"/>
+        <c:axId val="2130299248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7990,7 +8018,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-809019328"/>
+        <c:crossAx val="2130298704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14983,8 +15011,8 @@
   </sheetPr>
   <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15100,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" ref="I3:L3" si="2">C3*100/11</f>
+        <f t="shared" ref="I3:L4" si="2">C3*100/11</f>
         <v>72.727272727272734</v>
       </c>
       <c r="J3" s="16">
@@ -15144,20 +15172,20 @@
         <v>0</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" ref="I4:L4" si="3">C4*100/23</f>
-        <v>4.3478260869565215</v>
+        <f>C4*100/11</f>
+        <v>9.0909090909090917</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="3"/>
-        <v>4.3478260869565215</v>
+        <f t="shared" si="2"/>
+        <v>9.0909090909090917</v>
       </c>
       <c r="K4" s="16">
-        <f t="shared" si="3"/>
-        <v>17.391304347826086</v>
+        <f t="shared" si="2"/>
+        <v>36.363636363636367</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="3"/>
-        <v>21.739130434782609</v>
+        <f t="shared" si="2"/>
+        <v>45.454545454545453</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15188,19 +15216,19 @@
         <v>0</v>
       </c>
       <c r="I5" s="16">
-        <f t="shared" ref="I5:L5" si="4">C5*100/14</f>
+        <f t="shared" ref="I5:L5" si="3">C5*100/14</f>
         <v>35.714285714285715</v>
       </c>
       <c r="J5" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="K5" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28.571428571428573</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28.571428571428573</v>
       </c>
     </row>
@@ -15232,19 +15260,19 @@
         <v>0</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" ref="I6:L6" si="5">C6*100/12</f>
+        <f t="shared" ref="I6:L6" si="4">C6*100/12</f>
         <v>0</v>
       </c>
       <c r="J6" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.333333333333336</v>
       </c>
       <c r="K6" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41.666666666666664</v>
       </c>
     </row>
@@ -15304,11 +15332,11 @@
         <v>65</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" ref="H10:I10" si="6">C10*100/20</f>
+        <f t="shared" ref="H10:I10" si="5">C10*100/20</f>
         <v>5</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -15326,7 +15354,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E14" si="7">SUM(B11:D11)</f>
+        <f t="shared" ref="E11:E14" si="6">SUM(B11:D11)</f>
         <v>11</v>
       </c>
       <c r="G11" s="16">
@@ -15334,11 +15362,11 @@
         <v>72.727272727272734</v>
       </c>
       <c r="H11" s="16">
-        <f t="shared" ref="H11:I11" si="8">C11*100/11</f>
+        <f t="shared" ref="H11:I12" si="7">C11*100/11</f>
         <v>0</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>27.272727272727273</v>
       </c>
     </row>
@@ -15356,20 +15384,20 @@
         <v>2</v>
       </c>
       <c r="E12">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" ref="G12" si="8">B12*100/11</f>
+        <v>81.818181818181813</v>
+      </c>
+      <c r="H12" s="16">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="G12" s="16">
-        <f>B12*100/23</f>
-        <v>39.130434782608695</v>
-      </c>
-      <c r="H12" s="16">
-        <f t="shared" ref="H12:I12" si="9">C12*100/23</f>
         <v>0</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="9"/>
-        <v>8.695652173913043</v>
+        <f>D12*100/11</f>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15386,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="G13" s="16">
@@ -15394,11 +15422,11 @@
         <v>92.857142857142861</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" ref="H13:I13" si="10">C13*100/14</f>
+        <f t="shared" ref="H13:I13" si="9">C13*100/14</f>
         <v>0</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.1428571428571432</v>
       </c>
     </row>
@@ -15416,7 +15444,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G14" s="16">
@@ -15424,11 +15452,11 @@
         <v>41.666666666666664</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" ref="H14:I14" si="11">C14*100/12</f>
+        <f t="shared" ref="H14:I14" si="10">C14*100/12</f>
         <v>16.666666666666668</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41.666666666666664</v>
       </c>
     </row>
@@ -15547,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K23" si="12">SUM(B20:J20)</f>
+        <f t="shared" ref="K20:K23" si="11">SUM(B20:J20)</f>
         <v>11</v>
       </c>
     </row>
@@ -15583,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
@@ -15619,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
@@ -15653,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -15718,35 +15746,35 @@
         <v>0</v>
       </c>
       <c r="C27" s="16">
-        <f t="shared" ref="C27:J27" si="13">C19*100/20</f>
+        <f t="shared" ref="C27:J27" si="12">C19*100/20</f>
         <v>0</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="H27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="J27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
@@ -15759,35 +15787,35 @@
         <v>0</v>
       </c>
       <c r="C28" s="16">
-        <f t="shared" ref="C28:J28" si="14">C20*100/11</f>
+        <f t="shared" ref="C28:J28" si="13">C20*100/11</f>
         <v>0</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9.0909090909090917</v>
       </c>
       <c r="E28" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>45.454545454545453</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9.0909090909090917</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>27.272727272727273</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9.0909090909090917</v>
       </c>
       <c r="I28" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J28" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15800,16 +15828,16 @@
         <v>0</v>
       </c>
       <c r="C29" s="16">
-        <f t="shared" ref="C29:J29" si="15">C21*100/23</f>
+        <f t="shared" ref="C29:J29" si="14">C21*100/23</f>
         <v>0</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="15"/>
-        <v>34.782608695652172</v>
+        <f>D21*100/11</f>
+        <v>72.727272727272734</v>
       </c>
       <c r="E29" s="16">
-        <f t="shared" si="15"/>
-        <v>8.695652173913043</v>
+        <f t="shared" ref="E29:J29" si="15">E21*100/11</f>
+        <v>18.181818181818183</v>
       </c>
       <c r="F29" s="16">
         <f t="shared" si="15"/>
@@ -15817,7 +15845,7 @@
       </c>
       <c r="G29" s="16">
         <f t="shared" si="15"/>
-        <v>4.3478260869565215</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" si="15"/>
@@ -16174,7 +16202,7 @@
         <v>9.0909090909090917</v>
       </c>
       <c r="L44" s="16">
-        <f t="shared" ref="L44:P44" si="21">C44*100/11</f>
+        <f t="shared" ref="L44:P45" si="21">C44*100/11</f>
         <v>0</v>
       </c>
       <c r="M44" s="16">
@@ -16224,28 +16252,28 @@
         <v>41</v>
       </c>
       <c r="K45" s="16">
-        <f>B45*100/23</f>
+        <f>B45*100/11</f>
         <v>0</v>
       </c>
       <c r="L45" s="16">
-        <f t="shared" ref="L45:P45" si="22">C45*100/23</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M45" s="16">
-        <f t="shared" si="22"/>
-        <v>17.391304347826086</v>
+        <f t="shared" si="21"/>
+        <v>36.363636363636367</v>
       </c>
       <c r="N45" s="16">
-        <f t="shared" si="22"/>
-        <v>13.043478260869565</v>
+        <f t="shared" si="21"/>
+        <v>27.272727272727273</v>
       </c>
       <c r="O45" s="16">
-        <f t="shared" si="22"/>
-        <v>8.695652173913043</v>
+        <f t="shared" si="21"/>
+        <v>18.181818181818183</v>
       </c>
       <c r="P45" s="16">
-        <f t="shared" si="22"/>
-        <v>8.695652173913043</v>
+        <f t="shared" si="21"/>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16282,23 +16310,23 @@
         <v>14.285714285714286</v>
       </c>
       <c r="L46" s="16">
-        <f t="shared" ref="L46:P46" si="23">C46*100/14</f>
+        <f t="shared" ref="L46:P46" si="22">C46*100/14</f>
         <v>7.1428571428571432</v>
       </c>
       <c r="M46" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="N46" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>21.428571428571427</v>
       </c>
       <c r="O46" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="P46" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -16336,23 +16364,23 @@
         <v>66.666666666666671</v>
       </c>
       <c r="L47" s="16">
-        <f t="shared" ref="L47:P47" si="24">C47*100/12</f>
+        <f t="shared" ref="L47:P47" si="23">C47*100/12</f>
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="N47" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>16.666666666666668</v>
       </c>
       <c r="O47" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="P47" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -16431,19 +16459,19 @@
         <v>15</v>
       </c>
       <c r="M54" s="16">
-        <f t="shared" ref="M54:P54" si="25">C54*100/20</f>
+        <f t="shared" ref="M54:P54" si="24">C54*100/20</f>
         <v>20</v>
       </c>
       <c r="N54" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="O54" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="P54" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
     </row>
@@ -16452,27 +16480,27 @@
         <v>2</v>
       </c>
       <c r="B55" s="16">
-        <f t="shared" ref="B55:B58" si="26">SUM(B63:D63)</f>
+        <f t="shared" ref="B55:B58" si="25">SUM(B63:D63)</f>
         <v>0</v>
       </c>
       <c r="C55" s="16">
-        <f t="shared" ref="C55:C58" si="27">SUM(E63:K63)</f>
+        <f t="shared" ref="C55:C58" si="26">SUM(E63:K63)</f>
         <v>5</v>
       </c>
       <c r="D55" s="16">
-        <f t="shared" ref="D55:D58" si="28">SUM(L63:T63)</f>
+        <f t="shared" ref="D55:D58" si="27">SUM(L63:T63)</f>
         <v>2</v>
       </c>
       <c r="E55" s="16">
-        <f t="shared" ref="E55:E58" si="29">SUM(U63:AB63)</f>
+        <f t="shared" ref="E55:E58" si="28">SUM(U63:AB63)</f>
         <v>4</v>
       </c>
       <c r="F55" s="16">
-        <f t="shared" ref="F55:F58" si="30">SUM(AC63:AJ63)</f>
+        <f t="shared" ref="F55:F58" si="29">SUM(AC63:AJ63)</f>
         <v>0</v>
       </c>
       <c r="G55" s="16">
-        <f t="shared" ref="G55:G58" si="31">SUM(B55:F55)</f>
+        <f t="shared" ref="G55:G58" si="30">SUM(B55:F55)</f>
         <v>11</v>
       </c>
       <c r="K55" s="17" t="s">
@@ -16483,19 +16511,19 @@
         <v>0</v>
       </c>
       <c r="M55" s="16">
-        <f t="shared" ref="M55:P56" si="32">C55*100/11</f>
+        <f t="shared" ref="M55:P56" si="31">C55*100/11</f>
         <v>45.454545454545453</v>
       </c>
       <c r="N55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>18.181818181818183</v>
       </c>
       <c r="O55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>36.363636363636367</v>
       </c>
       <c r="P55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -16504,27 +16532,27 @@
         <v>3</v>
       </c>
       <c r="B56" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="C56" s="16">
+      <c r="D56" s="16">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="16">
+        <v>6</v>
+      </c>
+      <c r="E56" s="16">
         <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-      <c r="E56" s="16">
+        <v>3</v>
+      </c>
+      <c r="F56" s="16">
         <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="F56" s="16">
+        <v>2</v>
+      </c>
+      <c r="G56" s="16">
         <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="G56" s="16">
-        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="K56" s="17" t="s">
@@ -16535,19 +16563,19 @@
         <v>0</v>
       </c>
       <c r="M56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>54.545454545454547</v>
       </c>
       <c r="O56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>27.272727272727273</v>
       </c>
       <c r="P56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>18.181818181818183</v>
       </c>
     </row>
@@ -16556,27 +16584,27 @@
         <v>4</v>
       </c>
       <c r="B57" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="16">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="C57" s="16">
+        <v>5</v>
+      </c>
+      <c r="D57" s="16">
         <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="D57" s="16">
+        <v>2</v>
+      </c>
+      <c r="E57" s="16">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="E57" s="16">
+      <c r="F57" s="16">
         <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="F57" s="16">
+        <v>5</v>
+      </c>
+      <c r="G57" s="16">
         <f t="shared" si="30"/>
-        <v>5</v>
-      </c>
-      <c r="G57" s="16">
-        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="K57" s="17" t="s">
@@ -16587,19 +16615,19 @@
         <v>0</v>
       </c>
       <c r="M57" s="16">
-        <f t="shared" ref="M57:P57" si="33">C57*100/14</f>
+        <f t="shared" ref="M57:P57" si="32">C57*100/14</f>
         <v>35.714285714285715</v>
       </c>
       <c r="N57" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>14.285714285714286</v>
       </c>
       <c r="O57" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>14.285714285714286</v>
       </c>
       <c r="P57" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>35.714285714285715</v>
       </c>
     </row>
@@ -16608,27 +16636,27 @@
         <v>5</v>
       </c>
       <c r="B58" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="16">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="C58" s="16">
+        <v>2</v>
+      </c>
+      <c r="D58" s="16">
         <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="D58" s="16">
+        <v>5</v>
+      </c>
+      <c r="E58" s="16">
         <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="E58" s="16">
+        <v>4</v>
+      </c>
+      <c r="F58" s="16">
         <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="F58" s="16">
+        <v>1</v>
+      </c>
+      <c r="G58" s="16">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="G58" s="16">
-        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="K58" s="17" t="s">
@@ -16639,19 +16667,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="16">
-        <f t="shared" ref="M58:P58" si="34">C58*100/12</f>
+        <f t="shared" ref="M58:P58" si="33">C58*100/12</f>
         <v>16.666666666666668</v>
       </c>
       <c r="N58" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>41.666666666666664</v>
       </c>
       <c r="O58" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>33.333333333333336</v>
       </c>
       <c r="P58" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -17349,7 +17377,7 @@
   </sheetPr>
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
